--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1157B0-7468-4AB7-B19A-E1BB5B2E24E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21FFA4B-5729-4B46-9C84-3D1E6C695C05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterPatientDetails" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -83,10 +83,19 @@
     <t>findPatientTest</t>
   </si>
   <si>
-    <t>activeVisitsTest</t>
-  </si>
-  <si>
     <t>deletePatientTest</t>
+  </si>
+  <si>
+    <t>activateVisitsAndAddAttachmentTest</t>
+  </si>
+  <si>
+    <t>Ramesh Babu H</t>
+  </si>
+  <si>
+    <t>Kishore Kumar M</t>
+  </si>
+  <si>
+    <t>Kumar Raju Ch</t>
   </si>
 </sst>
 </file>
@@ -439,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028A0F5A-7230-4A15-843D-A7AFA3F57D2B}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,13 +540,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEC7808-E64D-4E00-8FAF-20C63FDCF960}">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
@@ -629,23 +638,24 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -655,7 +665,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -665,27 +675,27 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -695,22 +705,22 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21FFA4B-5729-4B46-9C84-3D1E6C695C05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89171AD0-C057-4C70-836D-5BC7915D327B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEC7808-E64D-4E00-8FAF-20C63FDCF960}">
-  <dimension ref="A2:F28"/>
+  <dimension ref="A2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,94 +632,94 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4" t="s">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="4" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>24</v>
+      <c r="A13" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>0</v>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
     </row>
